--- a/core/seed_inventories_inventoryaddheader.xlsx
+++ b/core/seed_inventories_inventoryaddheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE99289-FED7-4FD0-86EF-FAF884997355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E22A9-AD8D-42BD-B1F7-C6049086182A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CODE</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>IA 02</t>
-  </si>
-  <si>
-    <t>IA 03</t>
-  </si>
-  <si>
-    <t>IA 04</t>
-  </si>
-  <si>
-    <t>IA 05</t>
   </si>
 </sst>
 </file>
@@ -897,7 +888,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,41 +928,17 @@
         <v>45658</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45659</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45660</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45660</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/seed_inventories_inventoryaddheader.xlsx
+++ b/core/seed_inventories_inventoryaddheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E22A9-AD8D-42BD-B1F7-C6049086182A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8FFB0-9D66-43DF-82B0-F0320174A844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>CODE</t>
   </si>
@@ -31,16 +31,13 @@
     <t>ADDER</t>
   </si>
   <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
-    <t>test-id-15</t>
-  </si>
-  <si>
     <t>IA 01</t>
   </si>
   <si>
     <t>IA 02</t>
+  </si>
+  <si>
+    <t>EMP-ID-25</t>
   </si>
 </sst>
 </file>
@@ -888,7 +885,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,24 +908,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>45658</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>45658</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
